--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Quotation_xxx.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Quotation_xxx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\VBOXSVR\works\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HanbaiKanri_1.3.8\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8A4B964D-7FDA-4B31-B392-2B256E7767B2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D90C27-44AA-46C2-94F1-B8F3C2287968}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="19740" windowHeight="21165" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
+    <workbookView xWindow="0" yWindow="432" windowWidth="19740" windowHeight="21168" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>To</t>
     <phoneticPr fontId="1"/>
@@ -62,49 +62,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0200004 岩手県 盛岡市</t>
-    <rPh sb="8" eb="11">
-      <t>イワテケン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>モリオカ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Cc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大通三丁目6番12号 開運橋センタービル3階</t>
-    <rPh sb="0" eb="2">
-      <t>オオドオリ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>サンチョウメ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ゴウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カイウン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>バシ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>telp. 019-600-0000 Fax.019-600-0000</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -240,6 +198,21 @@
   </si>
   <si>
     <t>JPY 30,000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PT.ZENBI MACHINERY AND ELECTRONICS INDONESIA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cikarang Techno Park Building-3A　</t>
+  </si>
+  <si>
+    <t>Jl.Inti 1 Blok C1 No.7,Lippo Cikarang, Bekasi 17550</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEL:+62-21-89905877 FAX:+62-21-89905876</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -250,7 +223,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,6 +296,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -478,7 +459,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -563,137 +544,140 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -719,20 +703,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>204413</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>145883</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5F3C8BD-AE28-4AAF-9788-AD4AD3172819}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65EAD6DF-59CD-44D8-A414-3DEF0DE01593}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -754,8 +738,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="699713" cy="666750"/>
+          <a:off x="0" y="60960"/>
+          <a:ext cx="739140" cy="366863"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1066,73 +1050,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F18E92-DC95-4AD5-89E2-98B5D8D9CC8E}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" ht="22.2" x14ac:dyDescent="0.45">
       <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="D4" s="4" t="s">
-        <v>11</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="D4" s="72" t="s">
+        <v>39</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:27" ht="24" x14ac:dyDescent="0.4">
-      <c r="A6" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:27" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A6" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="71"/>
+      <c r="AA6" s="71"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1161,7 +1145,7 @@
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -1170,14 +1154,14 @@
         <v>6</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4" t="s">
@@ -1188,17 +1172,17 @@
         <v>6</v>
       </c>
       <c r="R8" s="4"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="70"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="70"/>
+      <c r="Y8" s="70"/>
+      <c r="Z8" s="70"/>
       <c r="AA8" s="4"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
@@ -1207,14 +1191,14 @@
         <v>6</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4" t="s">
@@ -1225,33 +1209,33 @@
         <v>6</v>
       </c>
       <c r="R9" s="4"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="70"/>
       <c r="AA9" s="4"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -1268,7 +1252,7 @@
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>2</v>
       </c>
@@ -1277,14 +1261,14 @@
         <v>6</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -1301,7 +1285,7 @@
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
@@ -1310,14 +1294,14 @@
         <v>6</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -1334,7 +1318,7 @@
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1363,217 +1347,217 @@
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A15" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A17" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A15" s="5" t="s">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A19" s="67" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
+      <c r="B19" s="67"/>
+      <c r="C19" s="68" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A17" s="7" t="s">
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="41" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A19" s="37" t="s">
+      <c r="M19" s="42"/>
+      <c r="N19" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="30" t="s">
+      <c r="O19" s="31"/>
+      <c r="P19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="39" t="s">
+      <c r="Q19" s="30"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="T19" s="30"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="M19" s="40"/>
-      <c r="N19" s="55" t="s">
+      <c r="AA19" s="63"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A20" s="43"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="64"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="66"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="54"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A21" s="43"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="60"/>
+      <c r="W21" s="61"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="62"/>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="54"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A22" s="45"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="55"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="59"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A23" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="O19" s="57"/>
-      <c r="P19" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="T19" s="56"/>
-      <c r="U19" s="57"/>
-      <c r="V19" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="57"/>
-      <c r="Z19" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA19" s="31"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="63"/>
-      <c r="W20" s="64"/>
-      <c r="X20" s="64"/>
-      <c r="Y20" s="65"/>
-      <c r="Z20" s="59"/>
-      <c r="AA20" s="60"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="67"/>
-      <c r="X21" s="67"/>
-      <c r="Y21" s="68"/>
-      <c r="Z21" s="59"/>
-      <c r="AA21" s="60"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A22" s="43"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="69"/>
-      <c r="W22" s="70"/>
-      <c r="X22" s="70"/>
-      <c r="Y22" s="71"/>
-      <c r="Z22" s="61"/>
-      <c r="AA22" s="62"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A23" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="T23" s="51"/>
-      <c r="U23" s="52"/>
-      <c r="V23" s="58"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="T23" s="33"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="28"/>
       <c r="W23" s="16"/>
       <c r="X23" s="16"/>
       <c r="Y23" s="16"/>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A24" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="T24" s="51"/>
-      <c r="U24" s="52"/>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A24" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="T24" s="33"/>
+      <c r="U24" s="34"/>
       <c r="V24" s="16"/>
       <c r="W24" s="16"/>
       <c r="X24" s="16"/>
@@ -1581,32 +1565,32 @@
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A25" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="57"/>
-      <c r="S25" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="T25" s="51"/>
-      <c r="U25" s="52"/>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A25" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="T25" s="33"/>
+      <c r="U25" s="34"/>
       <c r="V25" s="16"/>
       <c r="W25" s="16"/>
       <c r="X25" s="16"/>
@@ -1614,7 +1598,7 @@
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="5"/>
@@ -1643,9 +1627,9 @@
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
@@ -1655,32 +1639,32 @@
         <v>6</v>
       </c>
       <c r="G27" s="12"/>
-      <c r="H27" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="53"/>
+      <c r="H27" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="51"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="51"/>
+      <c r="W27" s="51"/>
+      <c r="X27" s="51"/>
+      <c r="Y27" s="51"/>
+      <c r="Z27" s="51"/>
       <c r="AA27" s="14"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="17"/>
@@ -1690,32 +1674,32 @@
         <v>6</v>
       </c>
       <c r="G28" s="17"/>
-      <c r="H28" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="54"/>
-      <c r="S28" s="54"/>
-      <c r="T28" s="54"/>
-      <c r="U28" s="54"/>
-      <c r="V28" s="54"/>
-      <c r="W28" s="54"/>
-      <c r="X28" s="54"/>
-      <c r="Y28" s="54"/>
-      <c r="Z28" s="54"/>
+      <c r="H28" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="52"/>
+      <c r="U28" s="52"/>
+      <c r="V28" s="52"/>
+      <c r="W28" s="52"/>
+      <c r="X28" s="52"/>
+      <c r="Y28" s="52"/>
+      <c r="Z28" s="52"/>
       <c r="AA28" s="19"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="17"/>
@@ -1725,32 +1709,32 @@
         <v>6</v>
       </c>
       <c r="G29" s="17"/>
-      <c r="H29" s="54">
+      <c r="H29" s="52">
         <v>20180228</v>
       </c>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="54"/>
-      <c r="W29" s="54"/>
-      <c r="X29" s="54"/>
-      <c r="Y29" s="54"/>
-      <c r="Z29" s="54"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="52"/>
+      <c r="U29" s="52"/>
+      <c r="V29" s="52"/>
+      <c r="W29" s="52"/>
+      <c r="X29" s="52"/>
+      <c r="Y29" s="52"/>
+      <c r="Z29" s="52"/>
       <c r="AA29" s="19"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -1760,37 +1744,37 @@
         <v>6</v>
       </c>
       <c r="G30" s="21"/>
-      <c r="H30" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="48"/>
-      <c r="T30" s="48"/>
-      <c r="U30" s="48"/>
-      <c r="V30" s="48"/>
-      <c r="W30" s="48"/>
-      <c r="X30" s="48"/>
-      <c r="Y30" s="48"/>
-      <c r="Z30" s="48"/>
+      <c r="H30" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="50"/>
+      <c r="W30" s="50"/>
+      <c r="X30" s="50"/>
+      <c r="Y30" s="50"/>
+      <c r="Z30" s="50"/>
       <c r="AA30" s="23"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1807,9 +1791,9 @@
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
@@ -1825,7 +1809,7 @@
       <c r="M35" s="26"/>
       <c r="N35" s="5"/>
       <c r="O35" s="26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P35" s="21"/>
       <c r="Q35" s="21"/>
@@ -1842,30 +1826,25 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="E12:L12"/>
+    <mergeCell ref="S8:Z8"/>
+    <mergeCell ref="S9:Z9"/>
+    <mergeCell ref="A6:AA6"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="E10:L10"/>
+    <mergeCell ref="E11:L11"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="V21:Y21"/>
+    <mergeCell ref="V19:Y19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="V20:Y20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
     <mergeCell ref="P19:R19"/>
@@ -1882,25 +1861,30 @@
     <mergeCell ref="C22:K22"/>
     <mergeCell ref="V22:Y22"/>
     <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="V21:Y21"/>
-    <mergeCell ref="V19:Y19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="V20:Y20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="E12:L12"/>
-    <mergeCell ref="S8:Z8"/>
-    <mergeCell ref="S9:Z9"/>
-    <mergeCell ref="A6:AA6"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="E10:L10"/>
-    <mergeCell ref="E11:L11"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="S25:U25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.11811023622047245"/>
